--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K30" sqref="K30"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -730,10 +730,10 @@
         <v>3001</v>
       </c>
       <c r="G2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H2">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -765,10 +765,10 @@
         <v>3002</v>
       </c>
       <c r="G3">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H3">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -800,10 +800,10 @@
         <v>3003</v>
       </c>
       <c r="G4">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H4">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -835,10 +835,10 @@
         <v>3004</v>
       </c>
       <c r="G5">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H5">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -870,10 +870,10 @@
         <v>3005</v>
       </c>
       <c r="G6">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H6">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -905,10 +905,10 @@
         <v>3006</v>
       </c>
       <c r="G7">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H7">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -940,10 +940,10 @@
         <v>3007</v>
       </c>
       <c r="G8">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H8">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -975,10 +975,10 @@
         <v>3008</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -1010,10 +1010,10 @@
         <v>3009</v>
       </c>
       <c r="G10">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="H10">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -1032,6 +1032,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +721,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.73263888888888884</v>
       </c>
       <c r="E2">
         <v>6</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -663,7 +663,7 @@
   <dimension ref="A1:K11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -721,7 +721,7 @@
         <v>0.33333333333333331</v>
       </c>
       <c r="D2" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E2">
         <v>6</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -286,6 +286,22 @@
   </si>
   <si>
     <t>300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1,2,3,4,5,6,7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -660,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -715,19 +731,19 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D2" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E2">
         <v>6</v>
       </c>
       <c r="F2">
-        <v>3001</v>
+        <v>4000</v>
       </c>
       <c r="G2">
         <v>-1</v>
@@ -739,10 +755,10 @@
         <v>1</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
@@ -750,19 +766,19 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C3" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.5</v>
       </c>
       <c r="D3" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E3">
         <v>6</v>
       </c>
       <c r="F3">
-        <v>3002</v>
+        <v>4001</v>
       </c>
       <c r="G3">
         <v>-1</v>
@@ -785,7 +801,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C4" s="2">
         <v>0.33333333333333331</v>
@@ -794,10 +810,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="E4">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F4">
-        <v>3003</v>
+        <v>3001</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -808,11 +824,11 @@
       <c r="I4">
         <v>1</v>
       </c>
-      <c r="J4">
-        <v>10001</v>
-      </c>
-      <c r="K4">
-        <v>5</v>
+      <c r="J4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -820,19 +836,19 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="2">
-        <v>0.97916666666666696</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E5">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F5">
-        <v>3004</v>
+        <v>3002</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -843,11 +859,11 @@
       <c r="I5">
         <v>1</v>
       </c>
-      <c r="J5">
-        <v>10001</v>
-      </c>
-      <c r="K5">
-        <v>5</v>
+      <c r="J5" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
@@ -855,19 +871,19 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C6" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D6" s="2">
-        <v>0.97916666666666696</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E6">
         <v>12</v>
       </c>
       <c r="F6">
-        <v>3005</v>
+        <v>3003</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -890,7 +906,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C7" s="2">
         <v>0.33333333333333298</v>
@@ -902,7 +918,7 @@
         <v>12</v>
       </c>
       <c r="F7">
-        <v>3006</v>
+        <v>3004</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -925,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C8" s="2">
         <v>0.33333333333333298</v>
@@ -937,7 +953,7 @@
         <v>12</v>
       </c>
       <c r="F8">
-        <v>3007</v>
+        <v>3005</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -960,10 +976,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C9" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D9" s="2">
         <v>0.97916666666666696</v>
@@ -972,7 +988,7 @@
         <v>12</v>
       </c>
       <c r="F9">
-        <v>3008</v>
+        <v>3006</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -987,7 +1003,7 @@
         <v>10001</v>
       </c>
       <c r="K9">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
@@ -995,10 +1011,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C10" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D10" s="2">
         <v>0.97916666666666696</v>
@@ -1007,7 +1023,7 @@
         <v>12</v>
       </c>
       <c r="F10">
-        <v>3009</v>
+        <v>3007</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -1022,12 +1038,78 @@
         <v>10001</v>
       </c>
       <c r="K10">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="E11">
+        <v>12</v>
+      </c>
+      <c r="F11">
+        <v>3008</v>
+      </c>
+      <c r="G11">
+        <v>-1</v>
+      </c>
+      <c r="H11">
+        <v>-1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>10001</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C12" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="E12">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>3009</v>
+      </c>
+      <c r="G12">
+        <v>-1</v>
+      </c>
+      <c r="H12">
+        <v>-1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="J12">
+        <v>10001</v>
+      </c>
+      <c r="K12">
+        <v>10</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -915,7 +915,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7">
         <v>3004</v>
@@ -950,7 +950,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F8">
         <v>3005</v>
@@ -985,7 +985,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E9">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="F9">
         <v>3006</v>
@@ -1020,7 +1020,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E10">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F10">
         <v>3007</v>
@@ -1055,7 +1055,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E11">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="F11">
         <v>3008</v>
@@ -1090,7 +1090,7 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E12">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="F12">
         <v>3009</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -207,7 +207,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -676,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K12"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -734,10 +734,10 @@
         <v>21</v>
       </c>
       <c r="C2" s="2">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="D2" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E2">
         <v>6</v>
@@ -801,19 +801,19 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D4" s="2">
-        <v>0.97916666666666663</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="E4">
         <v>6</v>
       </c>
       <c r="F4">
-        <v>3001</v>
+        <v>4001</v>
       </c>
       <c r="G4">
         <v>-1</v>
@@ -828,7 +828,7 @@
         <v>19</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
@@ -836,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C5" s="2">
         <v>0.33333333333333331</v>
@@ -848,7 +848,7 @@
         <v>6</v>
       </c>
       <c r="F5">
-        <v>3002</v>
+        <v>3001</v>
       </c>
       <c r="G5">
         <v>-1</v>
@@ -871,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C6" s="2">
         <v>0.33333333333333331</v>
@@ -880,10 +880,10 @@
         <v>0.97916666666666663</v>
       </c>
       <c r="E6">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="F6">
-        <v>3003</v>
+        <v>3002</v>
       </c>
       <c r="G6">
         <v>-1</v>
@@ -894,11 +894,11 @@
       <c r="I6">
         <v>1</v>
       </c>
-      <c r="J6">
-        <v>10001</v>
-      </c>
-      <c r="K6">
-        <v>5</v>
+      <c r="J6" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
@@ -906,19 +906,19 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C7" s="2">
-        <v>0.33333333333333298</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D7" s="2">
-        <v>0.97916666666666696</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="E7">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F7">
-        <v>3004</v>
+        <v>3003</v>
       </c>
       <c r="G7">
         <v>-1</v>
@@ -941,7 +941,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C8" s="2">
         <v>0.33333333333333298</v>
@@ -950,10 +950,10 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E8">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F8">
-        <v>3005</v>
+        <v>3004</v>
       </c>
       <c r="G8">
         <v>-1</v>
@@ -976,7 +976,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C9" s="2">
         <v>0.33333333333333298</v>
@@ -985,10 +985,10 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F9">
-        <v>3006</v>
+        <v>3005</v>
       </c>
       <c r="G9">
         <v>-1</v>
@@ -1011,7 +1011,7 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C10" s="2">
         <v>0.33333333333333298</v>
@@ -1020,10 +1020,10 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E10">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F10">
-        <v>3007</v>
+        <v>3006</v>
       </c>
       <c r="G10">
         <v>-1</v>
@@ -1046,19 +1046,19 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C11" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.33333333333333298</v>
       </c>
       <c r="D11" s="2">
         <v>0.97916666666666696</v>
       </c>
       <c r="E11">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F11">
-        <v>3008</v>
+        <v>3007</v>
       </c>
       <c r="G11">
         <v>-1</v>
@@ -1073,7 +1073,7 @@
         <v>10001</v>
       </c>
       <c r="K11">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
@@ -1090,10 +1090,10 @@
         <v>0.97916666666666696</v>
       </c>
       <c r="E12">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F12">
-        <v>3009</v>
+        <v>3008</v>
       </c>
       <c r="G12">
         <v>-1</v>
@@ -1108,6 +1108,41 @@
         <v>10001</v>
       </c>
       <c r="K12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0.97916666666666696</v>
+      </c>
+      <c r="E13">
+        <v>18</v>
+      </c>
+      <c r="F13">
+        <v>3009</v>
+      </c>
+      <c r="G13">
+        <v>-1</v>
+      </c>
+      <c r="H13">
+        <v>-1</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>10001</v>
+      </c>
+      <c r="K13">
         <v>10</v>
       </c>
     </row>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -679,7 +679,7 @@
   <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -119,11 +119,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//需要的公会等级</t>
+//清除玩家延时 结束时间之后这么久就清除场景的玩家</t>
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -145,7 +145,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
+//需要的公会等级</t>
         </r>
       </text>
     </comment>
@@ -171,12 +171,38 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-价格类型
-10000:金币  10001:砖石</t>
+//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+价格类型
+10000:金币  10001:砖石</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -207,7 +233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -303,6 +329,9 @@
   <si>
     <t>200</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CleanPlayerDelayTime</t>
   </si>
 </sst>
 </file>
@@ -676,22 +705,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="4" width="18.875" customWidth="1"/>
-    <col min="5" max="5" width="19.875" customWidth="1"/>
-    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="4" max="5" width="18.875" customWidth="1"/>
+    <col min="6" max="6" width="19.875" customWidth="1"/>
+    <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -705,28 +734,31 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="K1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -737,31 +769,34 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="2">
-        <v>0.77083333333333337</v>
-      </c>
-      <c r="E2">
+        <v>0.8208333333333333</v>
+      </c>
+      <c r="E2" s="3">
+        <v>60</v>
+      </c>
+      <c r="F2">
         <v>6</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>4000</v>
       </c>
-      <c r="G2">
-        <v>-1</v>
-      </c>
       <c r="H2">
         <v>-1</v>
       </c>
       <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="K2" s="3" t="s">
+      <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -774,29 +809,32 @@
       <c r="D3" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="3">
+        <v>60</v>
+      </c>
+      <c r="F3">
         <v>6</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>4001</v>
       </c>
-      <c r="G3">
-        <v>-1</v>
-      </c>
       <c r="H3">
         <v>-1</v>
       </c>
       <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -804,34 +842,37 @@
         <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>0.83333333333333337</v>
+        <v>0.82847222222222217</v>
       </c>
       <c r="D4" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="3">
+        <v>60</v>
+      </c>
+      <c r="F4">
         <v>6</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>4001</v>
       </c>
-      <c r="G4">
-        <v>-1</v>
-      </c>
       <c r="H4">
         <v>-1</v>
       </c>
       <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -839,34 +880,37 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>0.33333333333333331</v>
+        <v>0.82777777777777783</v>
       </c>
       <c r="D5" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="3">
+        <v>60</v>
+      </c>
+      <c r="F5">
         <v>6</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>3001</v>
       </c>
-      <c r="G5">
-        <v>-1</v>
-      </c>
       <c r="H5">
         <v>-1</v>
       </c>
       <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -879,29 +923,32 @@
       <c r="D6" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="3">
+        <v>60</v>
+      </c>
+      <c r="F6">
         <v>6</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>3002</v>
       </c>
-      <c r="G6">
-        <v>-1</v>
-      </c>
       <c r="H6">
         <v>-1</v>
       </c>
       <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -914,29 +961,32 @@
       <c r="D7" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="3">
+        <v>60</v>
+      </c>
+      <c r="F7">
         <v>12</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>3003</v>
       </c>
-      <c r="G7">
-        <v>-1</v>
-      </c>
       <c r="H7">
         <v>-1</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
         <v>10001</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -949,29 +999,32 @@
       <c r="D8" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="3">
+        <v>60</v>
+      </c>
+      <c r="F8">
         <v>13</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>3004</v>
       </c>
-      <c r="G8">
-        <v>-1</v>
-      </c>
       <c r="H8">
         <v>-1</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
         <v>10001</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -984,29 +1037,32 @@
       <c r="D9" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="3">
+        <v>60</v>
+      </c>
+      <c r="F9">
         <v>14</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>3005</v>
       </c>
-      <c r="G9">
-        <v>-1</v>
-      </c>
       <c r="H9">
         <v>-1</v>
       </c>
       <c r="I9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
         <v>10001</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1019,29 +1075,32 @@
       <c r="D10" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="3">
+        <v>60</v>
+      </c>
+      <c r="F10">
         <v>15</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>3006</v>
       </c>
-      <c r="G10">
-        <v>-1</v>
-      </c>
       <c r="H10">
         <v>-1</v>
       </c>
       <c r="I10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
         <v>10001</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1054,29 +1113,32 @@
       <c r="D11" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="3">
+        <v>60</v>
+      </c>
+      <c r="F11">
         <v>16</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>3007</v>
       </c>
-      <c r="G11">
-        <v>-1</v>
-      </c>
       <c r="H11">
         <v>-1</v>
       </c>
       <c r="I11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
         <v>10001</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1089,29 +1151,32 @@
       <c r="D12" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="3">
+        <v>60</v>
+      </c>
+      <c r="F12">
         <v>17</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>3008</v>
       </c>
-      <c r="G12">
-        <v>-1</v>
-      </c>
       <c r="H12">
         <v>-1</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
         <v>10001</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1124,25 +1189,28 @@
       <c r="D13" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="3">
+        <v>60</v>
+      </c>
+      <c r="F13">
         <v>18</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>3009</v>
       </c>
-      <c r="G13">
-        <v>-1</v>
-      </c>
       <c r="H13">
         <v>-1</v>
       </c>
       <c r="I13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
         <v>10001</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>10</v>
       </c>
     </row>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -769,7 +769,7 @@
         <v>0.75</v>
       </c>
       <c r="D2" s="2">
-        <v>0.8208333333333333</v>
+        <v>0.77083333333333337</v>
       </c>
       <c r="E2" s="3">
         <v>60</v>
@@ -842,7 +842,7 @@
         <v>21</v>
       </c>
       <c r="C4" s="2">
-        <v>0.82847222222222217</v>
+        <v>0.83333333333333337</v>
       </c>
       <c r="D4" s="2">
         <v>0.85416666666666663</v>
@@ -880,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="2">
-        <v>0.82777777777777783</v>
+        <v>0.33333333333333331</v>
       </c>
       <c r="D5" s="2">
         <v>0.97916666666666663</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -708,7 +708,7 @@
   <dimension ref="A1:L13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -807,7 +807,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="2">
-        <v>0.52083333333333337</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="3">
         <v>60</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -228,12 +228,38 @@
         </r>
       </text>
     </comment>
+    <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//地图类型 1:普通 2:夺宝奇兵</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -332,6 +358,13 @@
   </si>
   <si>
     <t>CleanPlayerDelayTime</t>
+  </si>
+  <si>
+    <t>MapType</t>
+  </si>
+  <si>
+    <t>1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -705,10 +738,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L13"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -720,7 +753,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -757,8 +790,11 @@
       <c r="L1" s="3" t="s">
         <v>18</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -795,8 +831,11 @@
       <c r="L2" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -833,8 +872,11 @@
       <c r="L3" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="M3">
+        <v>1</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -871,8 +913,11 @@
       <c r="L4" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -909,8 +954,11 @@
       <c r="L5" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -947,8 +995,11 @@
       <c r="L6" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -985,8 +1036,11 @@
       <c r="L7">
         <v>5</v>
       </c>
+      <c r="M7">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1023,8 +1077,11 @@
       <c r="L8">
         <v>5</v>
       </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1061,8 +1118,11 @@
       <c r="L9">
         <v>5</v>
       </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1099,8 +1159,11 @@
       <c r="L10">
         <v>5</v>
       </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1137,8 +1200,11 @@
       <c r="L11">
         <v>5</v>
       </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1175,8 +1241,11 @@
       <c r="L12">
         <v>10</v>
       </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1212,6 +1281,50 @@
       </c>
       <c r="L13">
         <v>10</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="A14">
+        <v>200</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="2">
+        <v>0.73263888888888884</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0.82638888888888884</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14">
+        <v>6</v>
+      </c>
+      <c r="G14">
+        <v>3010</v>
+      </c>
+      <c r="H14">
+        <v>-1</v>
+      </c>
+      <c r="I14">
+        <v>-1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="M14">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -741,7 +741,7 @@
   <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="M21" sqref="M21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1294,10 +1294,10 @@
         <v>21</v>
       </c>
       <c r="C14" s="2">
-        <v>0.73263888888888884</v>
+        <v>0.85416666666666663</v>
       </c>
       <c r="D14" s="2">
-        <v>0.82638888888888884</v>
+        <v>0.875</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>27</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="4" r:id="rId1"/>
+    <sheet name="ActivityMap" sheetId="4" r:id="rId1"/>
+    <sheet name="CopyMap" sheetId="5" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
@@ -258,8 +259,70 @@
 </comments>
 </file>
 
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>作者</author>
+  </authors>
+  <commentList>
+    <comment ref="B1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//需要的公会等级</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -740,8 +803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M21" sqref="M21"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1333,4 +1396,65 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>7</v>
+      </c>
+      <c r="C2">
+        <v>5000</v>
+      </c>
+      <c r="D2">
+        <v>-1</v>
+      </c>
+      <c r="E2">
+        <v>-1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B99AC-1821-4ABD-87BC-13DFBF4A5D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityMap" sheetId="4" r:id="rId1"/>
@@ -15,12 +16,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +47,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +73,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -98,7 +99,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -124,7 +125,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +151,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -176,7 +177,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -203,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -229,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -260,12 +261,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -291,7 +292,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -433,8 +434,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -515,7 +516,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -590,6 +591,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -625,6 +643,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -800,14 +835,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -816,7 +851,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -857,7 +892,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13">
       <c r="A2">
         <v>1</v>
       </c>
@@ -898,7 +933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13">
       <c r="A3">
         <v>2</v>
       </c>
@@ -939,7 +974,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13">
       <c r="A4">
         <v>3</v>
       </c>
@@ -980,7 +1015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1021,7 +1056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1062,7 +1097,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1185,7 +1220,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1226,7 +1261,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1267,7 +1302,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:13">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1308,7 +1343,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:13">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1349,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:13">
       <c r="A14">
         <v>200</v>
       </c>
@@ -1399,19 +1434,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1431,7 +1466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2">
         <v>1</v>
       </c>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C44B99AC-1821-4ABD-87BC-13DFBF4A5D6B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityMap" sheetId="4" r:id="rId1"/>
@@ -16,12 +15,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -47,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
+    <comment ref="C1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -73,7 +72,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -99,7 +98,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
+    <comment ref="E1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -125,7 +124,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -151,7 +150,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
+    <comment ref="J1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -177,7 +176,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
+    <comment ref="K1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -204,7 +203,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -230,7 +229,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
+    <comment ref="M1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -261,12 +260,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>作者</author>
   </authors>
   <commentList>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="B1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -292,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="F1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -315,6 +314,32 @@
           </rPr>
           <t xml:space="preserve">
 //总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//玩家数量</t>
         </r>
       </text>
     </comment>
@@ -323,7 +348,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -429,13 +454,16 @@
   <si>
     <t>1</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlayerCount</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -516,7 +544,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -591,23 +619,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -643,23 +654,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -835,14 +829,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="2" max="2" width="22" customWidth="1"/>
     <col min="3" max="3" width="18.375" customWidth="1"/>
@@ -851,7 +845,7 @@
     <col min="7" max="7" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -892,7 +886,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -933,7 +927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -944,7 +938,7 @@
         <v>0.5</v>
       </c>
       <c r="D3" s="2">
-        <v>0.6</v>
+        <v>0.52083333333333337</v>
       </c>
       <c r="E3" s="3">
         <v>60</v>
@@ -974,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1015,7 +1009,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1056,7 +1050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1097,7 +1091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1138,7 +1132,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1179,7 +1173,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1220,7 +1214,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1302,7 +1296,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1343,7 +1337,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1384,7 +1378,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>200</v>
       </c>
@@ -1434,19 +1428,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1465,8 +1459,11 @@
       <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1484,6 +1481,9 @@
       </c>
       <c r="F2">
         <v>1</v>
+      </c>
+      <c r="G2">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1429,10 +1429,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1468,7 +1468,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>5000</v>
@@ -1484,6 +1484,144 @@
       </c>
       <c r="G2">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>5001</v>
+      </c>
+      <c r="D3">
+        <v>-1</v>
+      </c>
+      <c r="E3">
+        <v>-1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>5002</v>
+      </c>
+      <c r="D4">
+        <v>-1</v>
+      </c>
+      <c r="E4">
+        <v>-1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>14</v>
+      </c>
+      <c r="C5">
+        <v>5003</v>
+      </c>
+      <c r="D5">
+        <v>-1</v>
+      </c>
+      <c r="E5">
+        <v>-1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>16</v>
+      </c>
+      <c r="C6">
+        <v>5004</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>-1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>17</v>
+      </c>
+      <c r="C7">
+        <v>5005</v>
+      </c>
+      <c r="D7">
+        <v>-1</v>
+      </c>
+      <c r="E7">
+        <v>-1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8">
+        <v>5006</v>
+      </c>
+      <c r="D8">
+        <v>-1</v>
+      </c>
+      <c r="E8">
+        <v>-1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1432,7 +1432,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1483,7 +1483,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
@@ -1506,7 +1506,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
@@ -1529,7 +1529,7 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
@@ -1575,7 +1575,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
@@ -1598,7 +1598,7 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
@@ -1621,7 +1621,7 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -343,12 +343,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="H1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//是否消耗匹配次数 0否 1是</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//地图类型 1:普通副本 2:竞技场</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -457,6 +509,10 @@
   </si>
   <si>
     <t>PlayerCount</t>
+  </si>
+  <si>
+    <t>IsCostCopyMapTimes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1429,10 +1485,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+      <selection activeCell="K16" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1440,7 +1496,7 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1462,8 +1518,14 @@
       <c r="G1" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1483,10 +1545,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1508,8 +1576,14 @@
       <c r="G3">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1531,8 +1605,14 @@
       <c r="G4">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1554,8 +1634,14 @@
       <c r="G5">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1577,8 +1663,14 @@
       <c r="G6">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1600,8 +1692,14 @@
       <c r="G7">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1622,6 +1720,41 @@
       </c>
       <c r="G8">
         <v>5</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>5007</v>
+      </c>
+      <c r="D9">
+        <v>-1</v>
+      </c>
+      <c r="E9">
+        <v>-1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>10</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -395,12 +395,64 @@
         </r>
       </text>
     </comment>
+    <comment ref="J1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//分成几组 0表示不分组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//分组规则 0表示存随机 1表示等级平均且竞技分平均</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -513,6 +565,12 @@
   <si>
     <t>IsCostCopyMapTimes</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GroupCount</t>
+  </si>
+  <si>
+    <t>GroupRule</t>
   </si>
 </sst>
 </file>
@@ -1485,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1496,7 +1554,7 @@
     <col min="3" max="3" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1524,8 +1582,14 @@
       <c r="I1" s="1" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1545,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1553,8 +1617,14 @@
       <c r="I2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J2">
+        <v>2</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1582,8 +1652,14 @@
       <c r="I3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1611,8 +1687,14 @@
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1640,8 +1722,14 @@
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1669,8 +1757,14 @@
       <c r="I6">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1698,8 +1792,14 @@
       <c r="I7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1727,8 +1827,14 @@
       <c r="I8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>10</v>
       </c>
@@ -1755,6 +1861,12 @@
       </c>
       <c r="I9">
         <v>2</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -1546,7 +1546,7 @@
   <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,7 +1609,7 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -1836,10 +1836,10 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9">
-        <v>10</v>
+        <v>100</v>
       </c>
       <c r="B9">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C9">
         <v>5007</v>
@@ -1854,7 +1854,7 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="H9">
         <v>0</v>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityMap" sheetId="4" r:id="rId1"/>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -571,6 +571,10 @@
   </si>
   <si>
     <t>GroupRule</t>
+  </si>
+  <si>
+    <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -946,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1035,7 +1039,7 @@
         <v>22</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="M2">
         <v>1</v>
@@ -1111,7 +1115,7 @@
         <v>-1</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>19</v>
@@ -1545,8 +1549,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/bin/conf/activitymap.xlsx
+++ b/bin/conf/activitymap.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ActivityMap" sheetId="4" r:id="rId1"/>
@@ -46,7 +46,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0">
+    <comment ref="D1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -69,32 +69,6 @@
           </rPr>
           <t xml:space="preserve">
 //开始时间 字符串</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="D1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//结束时间 字符串</t>
         </r>
       </text>
     </comment>
@@ -120,7 +94,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//清除玩家延时 结束时间之后这么久就清除场景的玩家</t>
+//结束时间 字符串</t>
         </r>
       </text>
     </comment>
@@ -146,11 +120,11 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//需要的公会等级</t>
+//清除玩家延时 结束时间之后这么久就清除场景的玩家</t>
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -172,7 +146,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
+//需要的公会等级</t>
         </r>
       </text>
     </comment>
@@ -198,8 +172,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-价格类型
-10000:金币  10001:砖石</t>
+//总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
         </r>
       </text>
     </comment>
@@ -225,11 +198,38 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-价格</t>
+价格类型
+10000:金币  10001:砖石</t>
         </r>
       </text>
     </comment>
     <comment ref="M1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+价格</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -291,7 +291,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0">
+    <comment ref="G1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -314,32 +314,6 @@
           </rPr>
           <t xml:space="preserve">
 //总开关 1表示开 其他表示关 关闭了在客户端就看不到了</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t>作者:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="宋体"/>
-            <family val="3"/>
-            <charset val="134"/>
-          </rPr>
-          <t xml:space="preserve">
-//玩家数量</t>
         </r>
       </text>
     </comment>
@@ -365,7 +339,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//是否消耗匹配次数 0否 1是</t>
+//玩家数量</t>
         </r>
       </text>
     </comment>
@@ -391,7 +365,7 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//地图类型 1:普通副本 2:竞技场</t>
+//是否消耗匹配次数 0否 1是</t>
         </r>
       </text>
     </comment>
@@ -417,11 +391,37 @@
             <charset val="134"/>
           </rPr>
           <t xml:space="preserve">
-//分成几组 0表示不分组</t>
+//地图类型 1:普通副本 2:竞技场</t>
         </r>
       </text>
     </comment>
     <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t>作者:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="宋体"/>
+            <family val="3"/>
+            <charset val="134"/>
+          </rPr>
+          <t xml:space="preserve">
+//分成几组 0表示不分组</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -452,7 +452,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="55">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -574,6 +574,87 @@
   </si>
   <si>
     <t>10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>竞技场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活动地图3</t>
+  </si>
+  <si>
+    <t>活动地图4</t>
+  </si>
+  <si>
+    <t>活动地图5</t>
+  </si>
+  <si>
+    <t>活动地图6</t>
+  </si>
+  <si>
+    <t>活动地图7</t>
+  </si>
+  <si>
+    <t>活动地图8</t>
+  </si>
+  <si>
+    <t>活动地图9</t>
+  </si>
+  <si>
+    <t>夺宝奇兵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经验地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>砖石地图</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>s</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -948,22 +1029,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M14"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="18.375" customWidth="1"/>
-    <col min="4" max="5" width="18.875" customWidth="1"/>
-    <col min="6" max="6" width="19.875" customWidth="1"/>
-    <col min="7" max="7" width="13" customWidth="1"/>
+    <col min="2" max="3" width="22" customWidth="1"/>
+    <col min="4" max="4" width="18.375" customWidth="1"/>
+    <col min="5" max="6" width="18.875" customWidth="1"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
+    <col min="8" max="8" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -971,569 +1052,611 @@
         <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="M1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>21</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="2">
         <v>0.75</v>
       </c>
-      <c r="D2" s="2">
+      <c r="E2" s="2">
         <v>0.77083333333333337</v>
       </c>
-      <c r="E2" s="3">
+      <c r="F2" s="3">
         <v>60</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>4000</v>
       </c>
-      <c r="H2">
-        <v>-1</v>
-      </c>
       <c r="I2">
         <v>-1</v>
       </c>
       <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="M2" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.5</v>
       </c>
-      <c r="D3" s="2">
+      <c r="E3" s="2">
         <v>0.52083333333333337</v>
       </c>
-      <c r="E3" s="3">
+      <c r="F3" s="3">
         <v>60</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>6</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4001</v>
       </c>
-      <c r="H3">
-        <v>-1</v>
-      </c>
       <c r="I3">
         <v>-1</v>
       </c>
       <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D4" s="2">
+      <c r="E4" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="E4" s="3">
+      <c r="F4" s="3">
         <v>60</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>6</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>4001</v>
       </c>
-      <c r="H4">
-        <v>-1</v>
-      </c>
       <c r="I4">
         <v>-1</v>
       </c>
       <c r="J4">
+        <v>-1</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D5" s="2">
+      <c r="E5" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E5" s="3">
+      <c r="F5" s="3">
         <v>60</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>6</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>3001</v>
       </c>
-      <c r="H5">
-        <v>-1</v>
-      </c>
       <c r="I5">
         <v>-1</v>
       </c>
       <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E6" s="3">
+      <c r="F6" s="3">
         <v>60</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>6</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>3002</v>
       </c>
-      <c r="H6">
-        <v>-1</v>
-      </c>
       <c r="I6">
         <v>-1</v>
       </c>
       <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="M6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
         <v>10</v>
       </c>
-      <c r="C7" s="2">
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="2">
         <v>0.33333333333333331</v>
       </c>
-      <c r="D7" s="2">
+      <c r="E7" s="2">
         <v>0.97916666666666663</v>
       </c>
-      <c r="E7" s="3">
+      <c r="F7" s="3">
         <v>60</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>12</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>3003</v>
       </c>
-      <c r="H7">
-        <v>-1</v>
-      </c>
       <c r="I7">
         <v>-1</v>
       </c>
       <c r="J7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>10001</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <v>5</v>
       </c>
-      <c r="M7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D8" s="2">
+      <c r="E8" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>60</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>13</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>3004</v>
       </c>
-      <c r="H8">
-        <v>-1</v>
-      </c>
       <c r="I8">
         <v>-1</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>10001</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>5</v>
       </c>
-      <c r="M8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D9" s="2">
+      <c r="E9" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>60</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>14</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>3005</v>
       </c>
-      <c r="H9">
-        <v>-1</v>
-      </c>
       <c r="I9">
         <v>-1</v>
       </c>
       <c r="J9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
         <v>10001</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>5</v>
       </c>
-      <c r="M9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
         <v>13</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10" t="s">
+        <v>47</v>
+      </c>
+      <c r="D10" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D10" s="2">
+      <c r="E10" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>60</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>15</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>3006</v>
       </c>
-      <c r="H10">
-        <v>-1</v>
-      </c>
       <c r="I10">
         <v>-1</v>
       </c>
       <c r="J10">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
         <v>10001</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>5</v>
       </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="2">
         <v>0.33333333333333298</v>
       </c>
-      <c r="D11" s="2">
+      <c r="E11" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E11" s="3">
+      <c r="F11" s="3">
         <v>60</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>3007</v>
       </c>
-      <c r="H11">
-        <v>-1</v>
-      </c>
       <c r="I11">
         <v>-1</v>
       </c>
       <c r="J11">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
         <v>10001</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>5</v>
       </c>
-      <c r="M11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12" t="s">
+        <v>49</v>
+      </c>
+      <c r="D12" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D12" s="2">
+      <c r="E12" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>60</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>3008</v>
       </c>
-      <c r="H12">
-        <v>-1</v>
-      </c>
       <c r="I12">
         <v>-1</v>
       </c>
       <c r="J12">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
         <v>10001</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>10</v>
       </c>
-      <c r="M12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13" s="2">
         <v>0.83333333333333337</v>
       </c>
-      <c r="D13" s="2">
+      <c r="E13" s="2">
         <v>0.97916666666666696</v>
       </c>
-      <c r="E13" s="3">
+      <c r="F13" s="3">
         <v>60</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>18</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>3009</v>
       </c>
-      <c r="H13">
-        <v>-1</v>
-      </c>
       <c r="I13">
         <v>-1</v>
       </c>
       <c r="J13">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
         <v>10001</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>10</v>
       </c>
-      <c r="M13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
+      <c r="N13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.15">
       <c r="A14">
         <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>21</v>
       </c>
-      <c r="C14" s="2">
+      <c r="C14" t="s">
+        <v>51</v>
+      </c>
+      <c r="D14" s="2">
         <v>0.85416666666666663</v>
       </c>
-      <c r="D14" s="2">
+      <c r="E14" s="2">
         <v>0.875</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>6</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>3010</v>
       </c>
-      <c r="H14">
-        <v>-1</v>
-      </c>
       <c r="I14">
         <v>-1</v>
       </c>
       <c r="J14">
-        <v>1</v>
-      </c>
-      <c r="K14" s="3" t="s">
+        <v>-1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>2</v>
       </c>
     </row>
@@ -1547,18 +1670,18 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1566,93 +1689,99 @@
         <v>16</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2">
         <v>5000</v>
       </c>
-      <c r="D2">
-        <v>-1</v>
-      </c>
       <c r="E2">
         <v>-1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
         <v>3</v>
       </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
       <c r="I2">
         <v>1</v>
       </c>
       <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
         <v>2</v>
       </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="L2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
         <v>10</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3">
         <v>5001</v>
       </c>
-      <c r="D3">
-        <v>-1</v>
-      </c>
       <c r="E3">
         <v>-1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3">
         <v>4</v>
       </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
       <c r="I3">
         <v>1</v>
       </c>
@@ -1660,34 +1789,37 @@
         <v>1</v>
       </c>
       <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
         <v>12</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4">
         <v>5002</v>
       </c>
-      <c r="D4">
-        <v>-1</v>
-      </c>
       <c r="E4">
         <v>-1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
         <v>5</v>
       </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
       <c r="I4">
         <v>1</v>
       </c>
@@ -1695,34 +1827,37 @@
         <v>1</v>
       </c>
       <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
         <v>14</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5">
         <v>5003</v>
       </c>
-      <c r="D5">
-        <v>-1</v>
-      </c>
       <c r="E5">
         <v>-1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
         <v>5</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
       <c r="I5">
         <v>1</v>
       </c>
@@ -1730,34 +1865,37 @@
         <v>1</v>
       </c>
       <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
         <v>16</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
         <v>5004</v>
       </c>
-      <c r="D6">
-        <v>-1</v>
-      </c>
       <c r="E6">
         <v>-1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6">
-        <v>1</v>
-      </c>
       <c r="I6">
         <v>1</v>
       </c>
@@ -1765,34 +1903,37 @@
         <v>1</v>
       </c>
       <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
         <v>17</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="s">
+        <v>35</v>
+      </c>
+      <c r="D7">
         <v>5005</v>
       </c>
-      <c r="D7">
-        <v>-1</v>
-      </c>
       <c r="E7">
         <v>-1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>5</v>
       </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
       <c r="I7">
         <v>1</v>
       </c>
@@ -1800,34 +1941,37 @@
         <v>1</v>
       </c>
       <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
         <v>18</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8">
         <v>5006</v>
       </c>
-      <c r="D8">
-        <v>-1</v>
-      </c>
       <c r="E8">
         <v>-1</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>5</v>
       </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
       <c r="I8">
         <v>1</v>
       </c>
@@ -1835,41 +1979,47 @@
         <v>1</v>
       </c>
       <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
       <c r="A9">
         <v>100</v>
       </c>
       <c r="B9">
         <v>6</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="s">
+        <v>36</v>
+      </c>
+      <c r="D9">
         <v>5007</v>
       </c>
-      <c r="D9">
-        <v>-1</v>
-      </c>
       <c r="E9">
         <v>-1</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="G9">
+        <v>1</v>
+      </c>
+      <c r="H9">
         <v>2</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>0</v>
-      </c>
-      <c r="I9">
-        <v>2</v>
       </c>
       <c r="J9">
         <v>2</v>
       </c>
       <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
         <v>1</v>
       </c>
     </row>
